--- a/project_documentation/Data Schema.xlsx
+++ b/project_documentation/Data Schema.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Activity/Project Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="539" documentId="8_{CC88A881-2B61-4227-A152-6FEA2A28B84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8FBFD5E-9EB5-4808-A807-2B8D0F42C59D}"/>
+  <xr:revisionPtr revIDLastSave="557" documentId="8_{CC88A881-2B61-4227-A152-6FEA2A28B84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38160FEC-D058-4D1D-B0C1-9C352E04F540}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{38871E50-D9E9-48FF-9F9A-3DA452DFBE7F}"/>
+    <workbookView minimized="1" xWindow="3852" yWindow="4236" windowWidth="17280" windowHeight="9420" xr2:uid="{38871E50-D9E9-48FF-9F9A-3DA452DFBE7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Partisan Makeup" sheetId="5" r:id="rId1"/>
-    <sheet name="Senate" sheetId="6" r:id="rId2"/>
-    <sheet name="House" sheetId="7" r:id="rId3"/>
-    <sheet name="Confirmations" sheetId="8" r:id="rId4"/>
+    <sheet name="Legislative Activity" sheetId="6" r:id="rId2"/>
+    <sheet name="Confirmations" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="62">
   <si>
     <t>Attribute</t>
   </si>
@@ -303,10 +302,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -347,25 +343,25 @@
   <autoFilter ref="A1:G6" xr:uid="{BF5D7187-89B4-40D9-BE0A-79670DDA573C}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{8FBF8C0E-8765-4DF5-9239-21DB9547BBF6}" name="Attribute"/>
-    <tableColumn id="2" xr3:uid="{A3784F10-9EF3-454C-822B-F95607DFEEB6}" name="Data Type" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{AA39F22C-66CE-46A2-82F0-EC5EAB71F0E4}" name="Required" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{7CD61BEF-5A0C-472D-9440-CF55B17153CC}" name="Example" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A3784F10-9EF3-454C-822B-F95607DFEEB6}" name="Data Type" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{AA39F22C-66CE-46A2-82F0-EC5EAB71F0E4}" name="Required" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{7CD61BEF-5A0C-472D-9440-CF55B17153CC}" name="Example" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{5605E045-1E23-4AEB-AFDF-C3A3927F4D1F}" name="Collection Method"/>
     <tableColumn id="7" xr3:uid="{C213C88B-5516-4A15-BCBF-14071C27D05C}" name="Source"/>
-    <tableColumn id="8" xr3:uid="{08061F28-505C-4350-887D-965D3B4B158C}" name="Source Link" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{08061F28-505C-4350-887D-965D3B4B158C}" name="Source Link" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2B25B990-42B1-47A6-95AD-1E68F866780A}" name="Table136" displayName="Table136" ref="A1:G35" totalsRowShown="0">
-  <autoFilter ref="A1:G35" xr:uid="{0E51D44E-4CDD-4FC0-B043-A2332D8E3B4E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2B25B990-42B1-47A6-95AD-1E68F866780A}" name="Table136" displayName="Table136" ref="A1:G36" totalsRowShown="0">
+  <autoFilter ref="A1:G36" xr:uid="{0E51D44E-4CDD-4FC0-B043-A2332D8E3B4E}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{48A77EFF-5A74-4C31-B827-D2A2A3CFE1DA}" name="Attribute"/>
     <tableColumn id="2" xr3:uid="{CDD76939-FD01-471E-ADD5-C66B5916E1E7}" name="Data Type"/>
     <tableColumn id="3" xr3:uid="{64AD0E22-2CC9-4EC1-9987-066B52925331}" name="Required"/>
-    <tableColumn id="4" xr3:uid="{99E4BA03-5DD6-4E4A-A153-6C88339564F2}" name="Example" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{99E4BA03-5DD6-4E4A-A153-6C88339564F2}" name="Example" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{2A496A43-C863-4FB7-902B-8B9D17769DD4}" name="Collection Method"/>
     <tableColumn id="6" xr3:uid="{B204E5A3-6D4C-4374-B335-8C2617045FFF}" name="Source"/>
     <tableColumn id="8" xr3:uid="{72A2CEE6-CBA5-41A6-BAEB-917604C67E18}" name="Source Link"/>
@@ -375,22 +371,6 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A42653E8-E37A-4C17-8106-E521B631C844}" name="Table1367" displayName="Table1367" ref="A1:G35" totalsRowShown="0">
-  <autoFilter ref="A1:G35" xr:uid="{0E51D44E-4CDD-4FC0-B043-A2332D8E3B4E}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{97CE6969-6D38-4AA4-87DF-8C770E95EF43}" name="Attribute"/>
-    <tableColumn id="2" xr3:uid="{33ADF5B0-89AE-42F1-893F-87FA36B98A06}" name="Data Type"/>
-    <tableColumn id="3" xr3:uid="{E0FD2043-C5A8-4308-95B3-7AAAEBD100FF}" name="Required"/>
-    <tableColumn id="4" xr3:uid="{B0D018E6-FF04-4D52-9BAA-2F81254FE949}" name="Example" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F7C0604D-2424-4FD8-80D3-FE882FD99157}" name="Collection Method"/>
-    <tableColumn id="6" xr3:uid="{8F23F331-6D71-4BC1-B817-35AC72DF41B6}" name="Source"/>
-    <tableColumn id="8" xr3:uid="{96081888-C38D-4EC4-A3B1-FF1F00D943C7}" name="Source Link"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9EE7CCBE-04F4-4DA7-B9E7-D94BF3B07738}" name="Table13678" displayName="Table13678" ref="A1:G11" totalsRowShown="0">
   <autoFilter ref="A1:G11" xr:uid="{0E51D44E-4CDD-4FC0-B043-A2332D8E3B4E}"/>
   <tableColumns count="7">
@@ -707,7 +687,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,7 +848,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882DA7AB-E6EF-4AB0-94E9-1AE64B493407}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -978,16 +958,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
-        <v>150</v>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
@@ -1001,7 +981,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1010,7 +990,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>1010</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
@@ -1024,7 +1004,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1033,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="1">
-        <v>80</v>
+        <v>1010</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -1047,7 +1027,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1056,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
@@ -1070,7 +1050,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1079,7 +1059,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
@@ -1093,7 +1073,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1102,7 +1082,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
@@ -1116,7 +1096,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1125,7 +1105,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
         <v>46</v>
@@ -1139,7 +1119,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1148,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
@@ -1162,7 +1142,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -1171,7 +1151,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="1">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
         <v>46</v>
@@ -1185,7 +1165,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1194,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="1">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
         <v>46</v>
@@ -1208,16 +1188,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
         <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1">
-        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
@@ -1231,7 +1211,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1240,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -1254,7 +1234,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1263,7 +1243,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="1">
-        <v>270</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
         <v>46</v>
@@ -1277,7 +1257,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1286,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="1">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="E18" t="s">
         <v>46</v>
@@ -1300,7 +1280,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1309,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="1">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
         <v>46</v>
@@ -1323,7 +1303,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1332,7 +1312,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="1">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
         <v>46</v>
@@ -1346,7 +1326,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -1355,7 +1335,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
         <v>46</v>
@@ -1369,7 +1349,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1378,7 +1358,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
@@ -1392,7 +1372,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1401,7 +1381,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
         <v>46</v>
@@ -1415,7 +1395,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1424,7 +1404,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="1">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
@@ -1438,7 +1418,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1447,7 +1427,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="1">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
@@ -1461,7 +1441,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1470,7 +1450,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="1">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
         <v>46</v>
@@ -1484,7 +1464,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1493,7 +1473,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="1">
-        <v>2196</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
         <v>46</v>
@@ -1507,7 +1487,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1516,7 +1496,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="1">
-        <v>209</v>
+        <v>2196</v>
       </c>
       <c r="E28" t="s">
         <v>46</v>
@@ -1530,7 +1510,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1539,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="1">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c r="E29" t="s">
         <v>46</v>
@@ -1553,7 +1533,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1562,7 +1542,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="1">
-        <v>302</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
         <v>46</v>
@@ -1576,7 +1556,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -1585,7 +1565,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="1">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="E31" t="s">
         <v>46</v>
@@ -1599,7 +1579,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -1608,7 +1588,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="1">
-        <v>381</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
         <v>46</v>
@@ -1622,7 +1602,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1631,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="E33" t="s">
         <v>46</v>
@@ -1645,7 +1625,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1668,7 +1648,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1686,6 +1666,29 @@
         <v>45</v>
       </c>
       <c r="G35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1698,837 +1701,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AE4350-48AE-4102-B43B-CF41B62C2A7D}">
-  <dimension ref="A1:G35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.77734375" customWidth="1"/>
-    <col min="2" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
-    <col min="6" max="6" width="35.77734375" customWidth="1"/>
-    <col min="7" max="7" width="70.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1983</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>98</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>146</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>851</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>70</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1">
-        <v>234</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1">
-        <v>165</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1">
-        <v>323</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1">
-        <v>132</v>
-      </c>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1">
-        <v>45</v>
-      </c>
-      <c r="E24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1">
-        <v>102</v>
-      </c>
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4580</v>
-      </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1">
-        <v>440</v>
-      </c>
-      <c r="E28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1">
-        <v>237</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1">
-        <v>385</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1">
-        <v>35</v>
-      </c>
-      <c r="E31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1">
-        <v>297</v>
-      </c>
-      <c r="E32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1">
-        <v>201</v>
-      </c>
-      <c r="E33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B994B8D0-A3DD-4A59-8E85-FE230E87B359}">
   <dimension ref="A1:G11"/>
   <sheetViews>
